--- a/docs/trash/Excel file for pedagogical distance matrix.xlsx
+++ b/docs/trash/Excel file for pedagogical distance matrix.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2430" windowWidth="16170" windowHeight="11625"/>
+    <workbookView xWindow="0" yWindow="3645" windowWidth="16170" windowHeight="11625"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="6">
   <si>
     <t>Time 1</t>
   </si>
@@ -692,16 +692,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC12"/>
+  <dimension ref="A1:BC21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="105" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2:AC9"/>
+    <sheetView tabSelected="1" topLeftCell="AH9" zoomScale="105" workbookViewId="0">
+      <selection activeCell="AO13" sqref="AO13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:29" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:55" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -780,8 +780,68 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="AM2" s="2">
+        <v>6</v>
+      </c>
+      <c r="AN2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO2" s="4">
+        <f>SQRT(($M2-AO$9)^2)</f>
+        <v>5</v>
+      </c>
+      <c r="AP2" s="4">
+        <f t="shared" ref="AP2:AT7" si="2">SQRT(($M2-AP$9)^2)</f>
+        <v>1</v>
+      </c>
+      <c r="AQ2" s="4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AR2" s="4">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="AS2" s="4">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="AT2" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AV2" s="2">
+        <v>6</v>
+      </c>
+      <c r="AW2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AX2" s="23">
+        <f>SQRT(($M2-AX$9)^2)</f>
+        <v>5</v>
+      </c>
+      <c r="AY2" s="24">
+        <f t="shared" ref="AY2:BC7" si="3">SQRT(($M2-AY$9)^2)</f>
+        <v>1</v>
+      </c>
+      <c r="AZ2" s="25">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="BA2" s="25">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="BB2" s="25">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="BC2" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:29" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:55" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M3" s="2">
         <v>2</v>
       </c>
@@ -789,7 +849,7 @@
         <v>4</v>
       </c>
       <c r="O3" s="4">
-        <f t="shared" ref="O3:O7" si="2">SQRT(($M3-O$9)^2)</f>
+        <f t="shared" ref="O3:O7" si="4">SQRT(($M3-O$9)^2)</f>
         <v>1</v>
       </c>
       <c r="P3" s="4">
@@ -819,7 +879,7 @@
         <v>4</v>
       </c>
       <c r="X3" s="12">
-        <f t="shared" ref="X3:X7" si="3">SQRT(($M3-X$9)^2)</f>
+        <f t="shared" ref="X3:X7" si="5">SQRT(($M3-X$9)^2)</f>
         <v>1</v>
       </c>
       <c r="Y3" s="17">
@@ -842,8 +902,68 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
+      <c r="AM3" s="2">
+        <v>2</v>
+      </c>
+      <c r="AN3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO3" s="4">
+        <f t="shared" ref="AO3:AO7" si="6">SQRT(($M3-AO$9)^2)</f>
+        <v>1</v>
+      </c>
+      <c r="AP3" s="4">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="AQ3" s="4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AR3" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AS3" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AT3" s="4">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="AV3" s="2">
+        <v>2</v>
+      </c>
+      <c r="AW3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="AX3" s="12">
+        <f t="shared" ref="AX3:AX7" si="7">SQRT(($M3-AX$9)^2)</f>
+        <v>1</v>
+      </c>
+      <c r="AY3" s="17">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="AZ3" s="17">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="BA3" s="14">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="BB3" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BC3" s="21">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
     </row>
-    <row r="4" spans="1:29" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:55" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M4" s="2">
         <v>3</v>
       </c>
@@ -851,7 +971,7 @@
         <v>3</v>
       </c>
       <c r="O4" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="P4" s="4">
@@ -881,7 +1001,7 @@
         <v>3</v>
       </c>
       <c r="X4" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="Y4" s="13">
@@ -904,8 +1024,68 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
+      <c r="AM4" s="2">
+        <v>3</v>
+      </c>
+      <c r="AN4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO4" s="4">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="AP4" s="4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AQ4" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AR4" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AS4" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AT4" s="4">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="AV4" s="2">
+        <v>3</v>
+      </c>
+      <c r="AW4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX4" s="15">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AY4" s="13">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AZ4" s="14">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="BA4" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BB4" s="14">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="BC4" s="16">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
     </row>
-    <row r="5" spans="1:29" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:55" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M5" s="2">
         <v>4</v>
       </c>
@@ -913,7 +1093,7 @@
         <v>2</v>
       </c>
       <c r="O5" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="P5" s="4">
@@ -943,7 +1123,7 @@
         <v>2</v>
       </c>
       <c r="X5" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="Y5" s="14">
@@ -966,8 +1146,68 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
+      <c r="AM5" s="2">
+        <v>4</v>
+      </c>
+      <c r="AN5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO5" s="4">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="AP5" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AQ5" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AR5" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AS5" s="4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AT5" s="4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AV5" s="2">
+        <v>4</v>
+      </c>
+      <c r="AW5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX5" s="15">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="AY5" s="14">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AZ5" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BA5" s="14">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="BB5" s="13">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="BC5" s="16">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="6" spans="1:29" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:55" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M6" s="2">
         <v>5</v>
       </c>
@@ -975,7 +1215,7 @@
         <v>1</v>
       </c>
       <c r="O6" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="P6" s="4">
@@ -1005,7 +1245,7 @@
         <v>1</v>
       </c>
       <c r="X6" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="Y6" s="12">
@@ -1028,8 +1268,68 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="AM6" s="2">
+        <v>5</v>
+      </c>
+      <c r="AN6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO6" s="4">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="AP6" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AR6" s="4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AS6" s="4">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="AT6" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AV6" s="2">
+        <v>5</v>
+      </c>
+      <c r="AW6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX6" s="15">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="AY6" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AZ6" s="14">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="BA6" s="13">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="BB6" s="13">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="BC6" s="27">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:29" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:55" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M7" s="2">
         <v>1</v>
       </c>
@@ -1037,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="O7" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P7" s="4">
@@ -1067,7 +1367,7 @@
         <v>0</v>
       </c>
       <c r="X7" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y7" s="18">
@@ -1090,8 +1390,68 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
+      <c r="AM7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN7" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AP7" s="4">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="AQ7" s="4">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="AR7" s="4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AS7" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AT7" s="4">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="AV7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AW7" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AY7" s="18">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="AZ7" s="18">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="BA7" s="26">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="BB7" s="20">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="BC7" s="11">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
     </row>
-    <row r="8" spans="1:29" ht="48" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:55" ht="48" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L8" s="8"/>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
@@ -1133,8 +1493,48 @@
       <c r="AC8" s="6" t="s">
         <v>5</v>
       </c>
+      <c r="AM8" s="9"/>
+      <c r="AN8" s="9"/>
+      <c r="AO8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV8" s="9"/>
+      <c r="AW8" s="9"/>
+      <c r="AX8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BA8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="BC8" s="6" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="9" spans="1:29" ht="42.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:55" ht="42.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L9" s="8"/>
       <c r="M9" s="5"/>
       <c r="N9" s="8"/>
@@ -1176,25 +1576,474 @@
       <c r="AC9" s="3">
         <v>6</v>
       </c>
+      <c r="AM9" s="5"/>
+      <c r="AN9" s="8"/>
+      <c r="AO9" s="3">
+        <v>1</v>
+      </c>
+      <c r="AP9" s="3">
+        <v>5</v>
+      </c>
+      <c r="AQ9" s="3">
+        <v>4</v>
+      </c>
+      <c r="AR9" s="3">
+        <v>3</v>
+      </c>
+      <c r="AS9" s="3">
+        <v>2</v>
+      </c>
+      <c r="AT9" s="3">
+        <v>6</v>
+      </c>
+      <c r="AV9" s="5"/>
+      <c r="AW9" s="8"/>
+      <c r="AX9" s="3">
+        <v>1</v>
+      </c>
+      <c r="AY9" s="3">
+        <v>5</v>
+      </c>
+      <c r="AZ9" s="3">
+        <v>4</v>
+      </c>
+      <c r="BA9" s="3">
+        <v>3</v>
+      </c>
+      <c r="BB9" s="3">
+        <v>2</v>
+      </c>
+      <c r="BC9" s="3">
+        <v>6</v>
+      </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
     </row>
+    <row r="13" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:55" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM14" s="2">
+        <v>6</v>
+      </c>
+      <c r="AN14" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO14" s="4">
+        <v>5</v>
+      </c>
+      <c r="AP14" s="4">
+        <v>1</v>
+      </c>
+      <c r="AQ14" s="4">
+        <v>2</v>
+      </c>
+      <c r="AR14" s="4">
+        <v>3</v>
+      </c>
+      <c r="AS14" s="4">
+        <v>4</v>
+      </c>
+      <c r="AT14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AV14" s="2">
+        <v>6</v>
+      </c>
+      <c r="AW14" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AX14" s="23">
+        <v>5</v>
+      </c>
+      <c r="AY14" s="24">
+        <v>1</v>
+      </c>
+      <c r="AZ14" s="25">
+        <v>2</v>
+      </c>
+      <c r="BA14" s="25">
+        <v>3</v>
+      </c>
+      <c r="BB14" s="25">
+        <v>4</v>
+      </c>
+      <c r="BC14" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:55" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM15" s="2">
+        <v>2</v>
+      </c>
+      <c r="AN15" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO15" s="4">
+        <v>1</v>
+      </c>
+      <c r="AP15" s="4">
+        <v>3</v>
+      </c>
+      <c r="AQ15" s="4">
+        <v>2</v>
+      </c>
+      <c r="AR15" s="4">
+        <v>1</v>
+      </c>
+      <c r="AS15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT15" s="4">
+        <v>4</v>
+      </c>
+      <c r="AV15" s="2">
+        <v>2</v>
+      </c>
+      <c r="AW15" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="AX15" s="12">
+        <v>1</v>
+      </c>
+      <c r="AY15" s="17">
+        <v>3</v>
+      </c>
+      <c r="AZ15" s="17">
+        <v>2</v>
+      </c>
+      <c r="BA15" s="14">
+        <v>1</v>
+      </c>
+      <c r="BB15" s="14">
+        <v>0</v>
+      </c>
+      <c r="BC15" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:55" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM16" s="2">
+        <v>3</v>
+      </c>
+      <c r="AN16" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO16" s="4">
+        <v>2</v>
+      </c>
+      <c r="AP16" s="4">
+        <v>2</v>
+      </c>
+      <c r="AQ16" s="4">
+        <v>1</v>
+      </c>
+      <c r="AR16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS16" s="4">
+        <v>1</v>
+      </c>
+      <c r="AT16" s="4">
+        <v>3</v>
+      </c>
+      <c r="AV16" s="2">
+        <v>3</v>
+      </c>
+      <c r="AW16" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX16" s="15">
+        <v>2</v>
+      </c>
+      <c r="AY16" s="13">
+        <v>2</v>
+      </c>
+      <c r="AZ16" s="14">
+        <v>1</v>
+      </c>
+      <c r="BA16" s="14">
+        <v>0</v>
+      </c>
+      <c r="BB16" s="14">
+        <v>1</v>
+      </c>
+      <c r="BC16" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="39:55" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM17" s="2">
+        <v>2</v>
+      </c>
+      <c r="AN17" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO17" s="4">
+        <v>3</v>
+      </c>
+      <c r="AP17" s="4">
+        <v>1</v>
+      </c>
+      <c r="AQ17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR17" s="4">
+        <v>1</v>
+      </c>
+      <c r="AS17" s="4">
+        <v>2</v>
+      </c>
+      <c r="AT17" s="4">
+        <v>2</v>
+      </c>
+      <c r="AV17" s="2">
+        <v>4</v>
+      </c>
+      <c r="AW17" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX17" s="15">
+        <v>3</v>
+      </c>
+      <c r="AY17" s="14">
+        <v>1</v>
+      </c>
+      <c r="AZ17" s="14">
+        <v>0</v>
+      </c>
+      <c r="BA17" s="14">
+        <v>1</v>
+      </c>
+      <c r="BB17" s="13">
+        <v>2</v>
+      </c>
+      <c r="BC17" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="39:55" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM18" s="2">
+        <v>3</v>
+      </c>
+      <c r="AN18" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO18" s="4">
+        <v>4</v>
+      </c>
+      <c r="AP18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="4">
+        <v>1</v>
+      </c>
+      <c r="AR18" s="4">
+        <v>2</v>
+      </c>
+      <c r="AS18" s="4">
+        <v>3</v>
+      </c>
+      <c r="AT18" s="4">
+        <v>1</v>
+      </c>
+      <c r="AV18" s="2">
+        <v>5</v>
+      </c>
+      <c r="AW18" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX18" s="15">
+        <v>4</v>
+      </c>
+      <c r="AY18" s="12">
+        <v>0</v>
+      </c>
+      <c r="AZ18" s="14">
+        <v>1</v>
+      </c>
+      <c r="BA18" s="13">
+        <v>2</v>
+      </c>
+      <c r="BB18" s="13">
+        <v>3</v>
+      </c>
+      <c r="BC18" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="39:55" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM19" s="2">
+        <v>2</v>
+      </c>
+      <c r="AN19" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP19" s="4">
+        <v>4</v>
+      </c>
+      <c r="AQ19" s="4">
+        <v>3</v>
+      </c>
+      <c r="AR19" s="4">
+        <v>2</v>
+      </c>
+      <c r="AS19" s="4">
+        <v>1</v>
+      </c>
+      <c r="AT19" s="4">
+        <v>5</v>
+      </c>
+      <c r="AV19" s="2">
+        <v>1</v>
+      </c>
+      <c r="AW19" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX19" s="19">
+        <v>0</v>
+      </c>
+      <c r="AY19" s="18">
+        <v>4</v>
+      </c>
+      <c r="AZ19" s="18">
+        <v>3</v>
+      </c>
+      <c r="BA19" s="26">
+        <v>2</v>
+      </c>
+      <c r="BB19" s="20">
+        <v>1</v>
+      </c>
+      <c r="BC19" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="39:55" ht="48" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM20" s="9"/>
+      <c r="AN20" s="9"/>
+      <c r="AO20" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP20" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ20" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR20" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS20" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT20" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV20" s="9"/>
+      <c r="AW20" s="9"/>
+      <c r="AX20" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY20" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ20" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BA20" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB20" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="BC20" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="39:55" ht="42.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM21" s="5"/>
+      <c r="AN21" s="8"/>
+      <c r="AO21" s="3">
+        <v>2</v>
+      </c>
+      <c r="AP21" s="3">
+        <v>3</v>
+      </c>
+      <c r="AQ21" s="3">
+        <v>2</v>
+      </c>
+      <c r="AR21" s="3">
+        <v>3</v>
+      </c>
+      <c r="AS21" s="3">
+        <v>2</v>
+      </c>
+      <c r="AT21" s="3">
+        <v>6</v>
+      </c>
+      <c r="AV21" s="5"/>
+      <c r="AW21" s="8"/>
+      <c r="AX21" s="3">
+        <v>1</v>
+      </c>
+      <c r="AY21" s="3">
+        <v>5</v>
+      </c>
+      <c r="AZ21" s="3">
+        <v>4</v>
+      </c>
+      <c r="BA21" s="3">
+        <v>3</v>
+      </c>
+      <c r="BB21" s="3">
+        <v>2</v>
+      </c>
+      <c r="BC21" s="3">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="O2:T7">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFC00000"/>
+        <color theme="0"/>
+        <color theme="4" tint="-0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO2:AT7">
     <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFC00000"/>
+        <color theme="0"/>
+        <color theme="4" tint="-0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO14:AT19">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
